--- a/final_data_pipeline/output/312140longform.xlsx
+++ b/final_data_pipeline/output/312140longform.xlsx
@@ -825,7 +825,7 @@
         <v>81</v>
       </c>
       <c r="AA2">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB2">
         <v>8000</v>
@@ -914,7 +914,7 @@
         <v>81</v>
       </c>
       <c r="AA3">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB3">
         <v>8000</v>
@@ -1003,7 +1003,7 @@
         <v>81</v>
       </c>
       <c r="AA4">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB4">
         <v>8000</v>
@@ -1095,7 +1095,7 @@
         <v>81</v>
       </c>
       <c r="AA5">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB5">
         <v>8000</v>
@@ -1190,7 +1190,7 @@
         <v>81</v>
       </c>
       <c r="AA6">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB6">
         <v>8000</v>
@@ -1279,7 +1279,7 @@
         <v>81</v>
       </c>
       <c r="AA7">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB7">
         <v>8000</v>
@@ -2448,7 +2448,7 @@
         <v>81</v>
       </c>
       <c r="AA20">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB20">
         <v>8000</v>
@@ -2537,7 +2537,7 @@
         <v>81</v>
       </c>
       <c r="AA21">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB21">
         <v>8000</v>
@@ -2626,7 +2626,7 @@
         <v>81</v>
       </c>
       <c r="AA22">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB22">
         <v>8000</v>
@@ -2715,7 +2715,7 @@
         <v>81</v>
       </c>
       <c r="AA23">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB23">
         <v>8000</v>
@@ -2807,7 +2807,7 @@
         <v>81</v>
       </c>
       <c r="AA24">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB24">
         <v>8000</v>
@@ -2902,7 +2902,7 @@
         <v>81</v>
       </c>
       <c r="AA25">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB25">
         <v>8000</v>
@@ -2994,7 +2994,7 @@
         <v>81</v>
       </c>
       <c r="AA26">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB26">
         <v>8000</v>
@@ -3089,7 +3089,7 @@
         <v>81</v>
       </c>
       <c r="AA27">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB27">
         <v>8000</v>
@@ -3178,7 +3178,7 @@
         <v>81</v>
       </c>
       <c r="AA28">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB28">
         <v>8000</v>
@@ -3267,7 +3267,7 @@
         <v>81</v>
       </c>
       <c r="AA29">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB29">
         <v>8000</v>
@@ -3356,7 +3356,7 @@
         <v>81</v>
       </c>
       <c r="AA30">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB30">
         <v>8000</v>
@@ -3445,7 +3445,7 @@
         <v>81</v>
       </c>
       <c r="AA31">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB31">
         <v>8000</v>
@@ -3534,7 +3534,7 @@
         <v>81</v>
       </c>
       <c r="AA32">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB32">
         <v>8000</v>
@@ -3623,7 +3623,7 @@
         <v>81</v>
       </c>
       <c r="AA33">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB33">
         <v>8000</v>
@@ -3712,7 +3712,7 @@
         <v>81</v>
       </c>
       <c r="AA34">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB34">
         <v>8000</v>
@@ -3801,7 +3801,7 @@
         <v>81</v>
       </c>
       <c r="AA35">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB35">
         <v>8000</v>
@@ -3893,7 +3893,7 @@
         <v>81</v>
       </c>
       <c r="AA36">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB36">
         <v>8000</v>
@@ -3988,7 +3988,7 @@
         <v>81</v>
       </c>
       <c r="AA37">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB37">
         <v>8000</v>
@@ -4620,7 +4620,7 @@
         <v>81</v>
       </c>
       <c r="AA44">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB44">
         <v>8000</v>
@@ -4715,7 +4715,7 @@
         <v>81</v>
       </c>
       <c r="AA45">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB45">
         <v>8000</v>
@@ -4810,7 +4810,7 @@
         <v>81</v>
       </c>
       <c r="AA46">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB46">
         <v>8000</v>
@@ -4899,7 +4899,7 @@
         <v>81</v>
       </c>
       <c r="AA47">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB47">
         <v>8000</v>
@@ -4988,7 +4988,7 @@
         <v>81</v>
       </c>
       <c r="AA48">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB48">
         <v>8000</v>
@@ -5077,7 +5077,7 @@
         <v>81</v>
       </c>
       <c r="AA49">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB49">
         <v>8000</v>
@@ -5166,7 +5166,7 @@
         <v>81</v>
       </c>
       <c r="AA50">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB50">
         <v>8000</v>
@@ -5255,7 +5255,7 @@
         <v>81</v>
       </c>
       <c r="AA51">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB51">
         <v>8000</v>
@@ -5344,7 +5344,7 @@
         <v>81</v>
       </c>
       <c r="AA52">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB52">
         <v>8000</v>
@@ -5433,7 +5433,7 @@
         <v>81</v>
       </c>
       <c r="AA53">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB53">
         <v>8000</v>
@@ -5522,7 +5522,7 @@
         <v>81</v>
       </c>
       <c r="AA54">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB54">
         <v>8000</v>
@@ -5611,7 +5611,7 @@
         <v>81</v>
       </c>
       <c r="AA55">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB55">
         <v>8000</v>
@@ -5700,7 +5700,7 @@
         <v>81</v>
       </c>
       <c r="AA56">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB56">
         <v>8000</v>
@@ -5789,7 +5789,7 @@
         <v>81</v>
       </c>
       <c r="AA57">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB57">
         <v>8000</v>
@@ -5878,7 +5878,7 @@
         <v>81</v>
       </c>
       <c r="AA58">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB58">
         <v>8000</v>
@@ -5967,7 +5967,7 @@
         <v>81</v>
       </c>
       <c r="AA59">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB59">
         <v>8000</v>
@@ -6056,7 +6056,7 @@
         <v>81</v>
       </c>
       <c r="AA60">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB60">
         <v>8000</v>
@@ -7234,7 +7234,7 @@
         <v>81</v>
       </c>
       <c r="AA73">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB73">
         <v>8000</v>
@@ -7326,7 +7326,7 @@
         <v>81</v>
       </c>
       <c r="AA74">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB74">
         <v>8000</v>
@@ -7424,7 +7424,7 @@
         <v>81</v>
       </c>
       <c r="AA75">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB75">
         <v>8000</v>
@@ -7519,7 +7519,7 @@
         <v>81</v>
       </c>
       <c r="AA76">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB76">
         <v>8000</v>
@@ -7608,7 +7608,7 @@
         <v>81</v>
       </c>
       <c r="AA77">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB77">
         <v>8000</v>
@@ -7697,7 +7697,7 @@
         <v>81</v>
       </c>
       <c r="AA78">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB78">
         <v>8000</v>
@@ -7786,7 +7786,7 @@
         <v>81</v>
       </c>
       <c r="AA79">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB79">
         <v>8000</v>
@@ -7875,7 +7875,7 @@
         <v>81</v>
       </c>
       <c r="AA80">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB80">
         <v>8000</v>
@@ -7964,7 +7964,7 @@
         <v>81</v>
       </c>
       <c r="AA81">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB81">
         <v>8000</v>
@@ -8053,7 +8053,7 @@
         <v>81</v>
       </c>
       <c r="AA82">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB82">
         <v>8000</v>
@@ -8142,7 +8142,7 @@
         <v>81</v>
       </c>
       <c r="AA83">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB83">
         <v>8000</v>
@@ -8231,7 +8231,7 @@
         <v>81</v>
       </c>
       <c r="AA84">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB84">
         <v>8000</v>
@@ -8320,7 +8320,7 @@
         <v>81</v>
       </c>
       <c r="AA85">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB85">
         <v>8000</v>
@@ -8409,7 +8409,7 @@
         <v>81</v>
       </c>
       <c r="AA86">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB86">
         <v>8000</v>
@@ -8498,7 +8498,7 @@
         <v>81</v>
       </c>
       <c r="AA87">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB87">
         <v>8000</v>
@@ -8587,7 +8587,7 @@
         <v>81</v>
       </c>
       <c r="AA88">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB88">
         <v>8000</v>
@@ -8676,7 +8676,7 @@
         <v>81</v>
       </c>
       <c r="AA89">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB89">
         <v>8000</v>
@@ -8765,7 +8765,7 @@
         <v>81</v>
       </c>
       <c r="AA90">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB90">
         <v>8000</v>
@@ -8854,7 +8854,7 @@
         <v>81</v>
       </c>
       <c r="AA91">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB91">
         <v>8000</v>
@@ -8943,7 +8943,7 @@
         <v>81</v>
       </c>
       <c r="AA92">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB92">
         <v>8000</v>
@@ -9032,7 +9032,7 @@
         <v>81</v>
       </c>
       <c r="AA93">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB93">
         <v>8000</v>
@@ -9121,7 +9121,7 @@
         <v>81</v>
       </c>
       <c r="AA94">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB94">
         <v>8000</v>
@@ -9213,7 +9213,7 @@
         <v>81</v>
       </c>
       <c r="AA95">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB95">
         <v>8000</v>
@@ -9308,7 +9308,7 @@
         <v>81</v>
       </c>
       <c r="AA96">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB96">
         <v>8000</v>
@@ -9397,7 +9397,7 @@
         <v>81</v>
       </c>
       <c r="AA97">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB97">
         <v>8000</v>
@@ -9486,7 +9486,7 @@
         <v>81</v>
       </c>
       <c r="AA98">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB98">
         <v>8000</v>
@@ -9578,7 +9578,7 @@
         <v>81</v>
       </c>
       <c r="AA99">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB99">
         <v>8000</v>
@@ -9667,7 +9667,7 @@
         <v>81</v>
       </c>
       <c r="AA100">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB100">
         <v>8000</v>
@@ -9756,7 +9756,7 @@
         <v>81</v>
       </c>
       <c r="AA101">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB101">
         <v>8000</v>
@@ -9845,7 +9845,7 @@
         <v>81</v>
       </c>
       <c r="AA102">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB102">
         <v>8000</v>
@@ -9934,7 +9934,7 @@
         <v>81</v>
       </c>
       <c r="AA103">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB103">
         <v>8000</v>
@@ -10023,7 +10023,7 @@
         <v>81</v>
       </c>
       <c r="AA104">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB104">
         <v>8000</v>
@@ -10112,7 +10112,7 @@
         <v>81</v>
       </c>
       <c r="AA105">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB105">
         <v>8000</v>
@@ -10201,7 +10201,7 @@
         <v>81</v>
       </c>
       <c r="AA106">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB106">
         <v>8000</v>
@@ -10290,7 +10290,7 @@
         <v>81</v>
       </c>
       <c r="AA107">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB107">
         <v>8000</v>
@@ -10379,7 +10379,7 @@
         <v>81</v>
       </c>
       <c r="AA108">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB108">
         <v>8000</v>
@@ -10468,7 +10468,7 @@
         <v>81</v>
       </c>
       <c r="AA109">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB109">
         <v>8000</v>
@@ -10557,7 +10557,7 @@
         <v>81</v>
       </c>
       <c r="AA110">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB110">
         <v>8000</v>
@@ -10649,7 +10649,7 @@
         <v>81</v>
       </c>
       <c r="AA111">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB111">
         <v>8000</v>
@@ -10741,7 +10741,7 @@
         <v>81</v>
       </c>
       <c r="AA112">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB112">
         <v>8000</v>
@@ -10836,7 +10836,7 @@
         <v>81</v>
       </c>
       <c r="AA113">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB113">
         <v>8000</v>
@@ -10925,7 +10925,7 @@
         <v>81</v>
       </c>
       <c r="AA114">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AB114">
         <v>8000</v>
